--- a/data/s3/Aradas/archetypes/pop_archetypes_citizen.xlsx
+++ b/data/s3/Aradas/archetypes/pop_archetypes_citizen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asier.divasson\Documents\GitHub\CogniCity\data\s3\Aradas\archetypes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45890048-4892-4F2C-B0EA-B64B4F03AF9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0EC366E-12EC-4D86-A28A-A952A8DE5A36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -557,8 +557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AL16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AD1" zoomScale="184" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="AF11" sqref="AF11"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="184" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -760,8 +760,7 @@
         <v>240</v>
       </c>
       <c r="Q2" s="8">
-        <f>(4939*0.48)/C2</f>
-        <v>0.87276904046651349</v>
+        <v>0.12723095953348651</v>
       </c>
       <c r="R2" s="11">
         <v>0</v>
@@ -882,8 +881,7 @@
         <v>240</v>
       </c>
       <c r="Q3" s="8">
-        <f>(4939*0.52)/C3</f>
-        <v>0.87276904046651349</v>
+        <v>0.12723095953348651</v>
       </c>
       <c r="R3" s="11">
         <v>0</v>
@@ -1123,7 +1121,7 @@
         <v>240</v>
       </c>
       <c r="Q5" s="8">
-        <f>1906/C5</f>
+        <f>1-0.0670582476749878</f>
         <v>0.9329417523250122</v>
       </c>
       <c r="R5" s="11">
@@ -1244,8 +1242,7 @@
         <v>240</v>
       </c>
       <c r="Q6" s="8">
-        <f>0.97</f>
-        <v>0.97</v>
+        <v>3.0000000000000027E-2</v>
       </c>
       <c r="R6" s="11">
         <v>0</v>
@@ -1315,10 +1312,18 @@
         <v>99999</v>
       </c>
     </row>
+    <row r="8" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="Q8" s="3"/>
+    </row>
+    <row r="9" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="Q9" s="3"/>
+    </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="Q10" s="3"/>
       <c r="AJ10" s="2"/>
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="Q11" s="3"/>
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
       <c r="U11" s="1"/>
@@ -1329,6 +1334,7 @@
       <c r="Z11" s="1"/>
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="Q12" s="3"/>
       <c r="S12" s="5"/>
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
@@ -1339,6 +1345,7 @@
       <c r="Z12" s="1"/>
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="Q13" s="3"/>
       <c r="S13" s="5"/>
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
